--- a/excel/synthetic_s_up_graph_time_PTGG.xlsx
+++ b/excel/synthetic_s_up_graph_time_PTGG.xlsx
@@ -422,294 +422,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>11.515</v>
+      </c>
       <c r="C2">
-        <v>11.515</v>
+        <v>8.189</v>
       </c>
       <c r="D2">
-        <v>8.189</v>
+        <v>6.224</v>
       </c>
       <c r="E2">
-        <v>6.224</v>
+        <v>4.485</v>
       </c>
       <c r="F2">
-        <v>4.485</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.406154597630968</v>
       </c>
       <c r="H2">
-        <v>1.406154597630968</v>
+        <v>1.850096401028277</v>
       </c>
       <c r="I2">
-        <v>1.850096401028277</v>
-      </c>
-      <c r="J2">
         <v>2.567447045707915</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>35.748</v>
+      </c>
       <c r="C3">
-        <v>35.748</v>
+        <v>20.415</v>
       </c>
       <c r="D3">
-        <v>20.415</v>
+        <v>14.854</v>
       </c>
       <c r="E3">
-        <v>14.854</v>
+        <v>12.711</v>
       </c>
       <c r="F3">
-        <v>12.711</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.751065393093314</v>
       </c>
       <c r="H3">
-        <v>1.751065393093314</v>
+        <v>2.406624478255016</v>
       </c>
       <c r="I3">
-        <v>2.406624478255016</v>
-      </c>
-      <c r="J3">
         <v>2.812367240972387</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>106.08</v>
+      </c>
       <c r="C4">
-        <v>106.08</v>
+        <v>44.517</v>
       </c>
       <c r="D4">
-        <v>44.517</v>
+        <v>36.855</v>
       </c>
       <c r="E4">
-        <v>36.855</v>
+        <v>36.146</v>
       </c>
       <c r="F4">
-        <v>36.146</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2.382909899588921</v>
       </c>
       <c r="H4">
-        <v>2.382909899588921</v>
+        <v>2.878306878306879</v>
       </c>
       <c r="I4">
-        <v>2.878306878306879</v>
-      </c>
-      <c r="J4">
         <v>2.934764565927074</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>301.44</v>
+      </c>
       <c r="C5">
-        <v>301.44</v>
+        <v>120.955</v>
       </c>
       <c r="D5">
-        <v>120.955</v>
+        <v>94.223</v>
       </c>
       <c r="E5">
-        <v>94.223</v>
+        <v>97.57899999999999</v>
       </c>
       <c r="F5">
-        <v>97.57899999999999</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2.492166508205531</v>
       </c>
       <c r="H5">
-        <v>2.492166508205531</v>
+        <v>3.199218874372499</v>
       </c>
       <c r="I5">
-        <v>3.199218874372499</v>
-      </c>
-      <c r="J5">
         <v>3.089189272281946</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>823.8910000000001</v>
+      </c>
       <c r="C6">
-        <v>823.8910000000001</v>
+        <v>302.131</v>
       </c>
       <c r="D6">
-        <v>302.131</v>
+        <v>243.092</v>
       </c>
       <c r="E6">
-        <v>243.092</v>
+        <v>267.11</v>
       </c>
       <c r="F6">
-        <v>267.11</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2.726933019120846</v>
       </c>
       <c r="H6">
-        <v>2.726933019120846</v>
+        <v>3.389214782880555</v>
       </c>
       <c r="I6">
-        <v>3.389214782880555</v>
-      </c>
-      <c r="J6">
         <v>3.08446332971435</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>2201.416</v>
+      </c>
       <c r="C7">
-        <v>2201.416</v>
+        <v>786.848</v>
       </c>
       <c r="D7">
-        <v>786.848</v>
+        <v>627.6859999999999</v>
       </c>
       <c r="E7">
-        <v>627.6859999999999</v>
+        <v>697.275</v>
       </c>
       <c r="F7">
-        <v>697.275</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2.797765260889016</v>
       </c>
       <c r="H7">
-        <v>2.797765260889016</v>
+        <v>3.507193086989355</v>
       </c>
       <c r="I7">
-        <v>3.507193086989355</v>
-      </c>
-      <c r="J7">
         <v>3.157170413395002</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>5775.226</v>
+      </c>
       <c r="C8">
-        <v>5775.226</v>
+        <v>2087.685</v>
       </c>
       <c r="D8">
-        <v>2087.685</v>
+        <v>1640.582</v>
       </c>
       <c r="E8">
-        <v>1640.582</v>
+        <v>1809.273</v>
       </c>
       <c r="F8">
-        <v>1809.273</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2.766330169541861</v>
       </c>
       <c r="H8">
-        <v>2.766330169541861</v>
+        <v>3.52023001593337</v>
       </c>
       <c r="I8">
-        <v>3.52023001593337</v>
-      </c>
-      <c r="J8">
         <v>3.192014693194449</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>15002.914</v>
+      </c>
       <c r="C9">
-        <v>15002.914</v>
+        <v>5219.379</v>
       </c>
       <c r="D9">
-        <v>5219.379</v>
+        <v>4255.005</v>
       </c>
       <c r="E9">
-        <v>4255.005</v>
+        <v>4731.989</v>
       </c>
       <c r="F9">
-        <v>4731.989</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2.874463417966007</v>
       </c>
       <c r="H9">
-        <v>2.874463417966007</v>
+        <v>3.525945092896483</v>
       </c>
       <c r="I9">
-        <v>3.525945092896483</v>
-      </c>
-      <c r="J9">
         <v>3.17053019354018</v>
       </c>
     </row>

--- a/excel/synthetic_s_up_graph_time_PTGG.xlsx
+++ b/excel/synthetic_s_up_graph_time_PTGG.xlsx
@@ -471,7 +471,7 @@
         <v>6.224</v>
       </c>
       <c r="E2">
-        <v>4.485</v>
+        <v>3.793</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>1.850096401028277</v>
       </c>
       <c r="I2">
-        <v>2.567447045707915</v>
+        <v>3.035855523332454</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,7 +500,7 @@
         <v>14.854</v>
       </c>
       <c r="E3">
-        <v>12.711</v>
+        <v>11.249</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>2.406624478255016</v>
       </c>
       <c r="I3">
-        <v>2.812367240972387</v>
+        <v>3.177882478442529</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,7 +529,7 @@
         <v>36.855</v>
       </c>
       <c r="E4">
-        <v>36.146</v>
+        <v>32.499</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>2.878306878306879</v>
       </c>
       <c r="I4">
-        <v>2.934764565927074</v>
+        <v>3.264100433859503</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,7 +558,7 @@
         <v>94.223</v>
       </c>
       <c r="E5">
-        <v>97.57899999999999</v>
+        <v>90.252</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>3.199218874372499</v>
       </c>
       <c r="I5">
-        <v>3.089189272281946</v>
+        <v>3.339981385454062</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,7 +587,7 @@
         <v>243.092</v>
       </c>
       <c r="E6">
-        <v>267.11</v>
+        <v>246.985</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>3.389214782880555</v>
       </c>
       <c r="I6">
-        <v>3.08446332971435</v>
+        <v>3.335793671680467</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,7 +616,7 @@
         <v>627.6859999999999</v>
       </c>
       <c r="E7">
-        <v>697.275</v>
+        <v>653.174</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>3.507193086989355</v>
       </c>
       <c r="I7">
-        <v>3.157170413395002</v>
+        <v>3.370336235061408</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,7 +645,7 @@
         <v>1640.582</v>
       </c>
       <c r="E8">
-        <v>1809.273</v>
+        <v>1710.49</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>3.52023001593337</v>
       </c>
       <c r="I8">
-        <v>3.192014693194449</v>
+        <v>3.376357651900917</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,7 +674,7 @@
         <v>4255.005</v>
       </c>
       <c r="E9">
-        <v>4731.989</v>
+        <v>4427.437</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>3.525945092896483</v>
       </c>
       <c r="I9">
-        <v>3.17053019354018</v>
+        <v>3.38862280818451</v>
       </c>
     </row>
   </sheetData>

--- a/excel/synthetic_s_up_graph_time_PTGG.xlsx
+++ b/excel/synthetic_s_up_graph_time_PTGG.xlsx
@@ -471,7 +471,7 @@
         <v>6.224</v>
       </c>
       <c r="E2">
-        <v>3.793</v>
+        <v>4.262</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>1.850096401028277</v>
       </c>
       <c r="I2">
-        <v>3.035855523332454</v>
+        <v>2.70178320037541</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,7 +500,7 @@
         <v>14.854</v>
       </c>
       <c r="E3">
-        <v>11.249</v>
+        <v>12.015</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>2.406624478255016</v>
       </c>
       <c r="I3">
-        <v>3.177882478442529</v>
+        <v>2.975280898876405</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,7 +529,7 @@
         <v>36.855</v>
       </c>
       <c r="E4">
-        <v>32.499</v>
+        <v>34.637</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>2.878306878306879</v>
       </c>
       <c r="I4">
-        <v>3.264100433859503</v>
+        <v>3.062620896728931</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,7 +558,7 @@
         <v>94.223</v>
       </c>
       <c r="E5">
-        <v>90.252</v>
+        <v>94.834</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>3.199218874372499</v>
       </c>
       <c r="I5">
-        <v>3.339981385454062</v>
+        <v>3.17860682877449</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,7 +587,7 @@
         <v>243.092</v>
       </c>
       <c r="E6">
-        <v>246.985</v>
+        <v>259.004</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>3.389214782880555</v>
       </c>
       <c r="I6">
-        <v>3.335793671680467</v>
+        <v>3.180997204676376</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,7 +616,7 @@
         <v>627.6859999999999</v>
       </c>
       <c r="E7">
-        <v>653.174</v>
+        <v>678.495</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>3.507193086989355</v>
       </c>
       <c r="I7">
-        <v>3.370336235061408</v>
+        <v>3.244557439627411</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,7 +645,7 @@
         <v>1640.582</v>
       </c>
       <c r="E8">
-        <v>1710.49</v>
+        <v>1761.689</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>3.52023001593337</v>
       </c>
       <c r="I8">
-        <v>3.376357651900917</v>
+        <v>3.278232423543542</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,7 +674,7 @@
         <v>4255.005</v>
       </c>
       <c r="E9">
-        <v>4427.437</v>
+        <v>4579.446</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>3.525945092896483</v>
       </c>
       <c r="I9">
-        <v>3.38862280818451</v>
+        <v>3.276141699236109</v>
       </c>
     </row>
   </sheetData>
